--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H2">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N2">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q2">
-        <v>88.05036316908391</v>
+        <v>58.68958362857889</v>
       </c>
       <c r="R2">
-        <v>88.05036316908391</v>
+        <v>528.20625265721</v>
       </c>
       <c r="S2">
-        <v>0.02898036335451525</v>
+        <v>0.01315401832539083</v>
       </c>
       <c r="T2">
-        <v>0.02898036335451525</v>
+        <v>0.01315401832539083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H3">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q3">
-        <v>450.0443363636093</v>
+        <v>241.6532774892247</v>
       </c>
       <c r="R3">
-        <v>450.0443363636093</v>
+        <v>2174.879497403022</v>
       </c>
       <c r="S3">
-        <v>0.1481248676784393</v>
+        <v>0.05416142770070948</v>
       </c>
       <c r="T3">
-        <v>0.1481248676784393</v>
+        <v>0.05416142770070947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H4">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N4">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q4">
-        <v>586.6428975666369</v>
+        <v>364.9427346416513</v>
       </c>
       <c r="R4">
-        <v>586.6428975666369</v>
+        <v>3284.484611774862</v>
       </c>
       <c r="S4">
-        <v>0.1930840909557567</v>
+        <v>0.08179412976542128</v>
       </c>
       <c r="T4">
-        <v>0.1930840909557567</v>
+        <v>0.08179412976542126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H5">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I5">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J5">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N5">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q5">
-        <v>208.1552109041353</v>
+        <v>121.9849056566263</v>
       </c>
       <c r="R5">
-        <v>208.1552109041353</v>
+        <v>1097.864150909636</v>
       </c>
       <c r="S5">
-        <v>0.06851094565678846</v>
+        <v>0.02734031467292567</v>
       </c>
       <c r="T5">
-        <v>0.06851094565678846</v>
+        <v>0.02734031467292566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H6">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N6">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q6">
-        <v>87.57499297959981</v>
+        <v>117.4321105229606</v>
       </c>
       <c r="R6">
-        <v>87.57499297959981</v>
+        <v>1056.888994706645</v>
       </c>
       <c r="S6">
-        <v>0.02882390288889855</v>
+        <v>0.02631990275453498</v>
       </c>
       <c r="T6">
-        <v>0.02882390288889855</v>
+        <v>0.02631990275453498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H7">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q7">
-        <v>447.6146171239216</v>
+        <v>483.5245478983378</v>
       </c>
       <c r="R7">
-        <v>447.6146171239216</v>
+        <v>4351.72093108504</v>
       </c>
       <c r="S7">
-        <v>0.1473251646007769</v>
+        <v>0.1083717138646373</v>
       </c>
       <c r="T7">
-        <v>0.1473251646007769</v>
+        <v>0.1083717138646373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H8">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J8">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N8">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q8">
-        <v>583.4757039817537</v>
+        <v>730.2146803461244</v>
       </c>
       <c r="R8">
-        <v>583.4757039817537</v>
+        <v>6571.93212311512</v>
       </c>
       <c r="S8">
-        <v>0.1920416600378086</v>
+        <v>0.1636620451685237</v>
       </c>
       <c r="T8">
-        <v>0.1920416600378086</v>
+        <v>0.1636620451685237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H9">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J9">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N9">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q9">
-        <v>207.0314133581833</v>
+        <v>244.0798526337869</v>
       </c>
       <c r="R9">
-        <v>207.0314133581833</v>
+        <v>2196.718673704082</v>
       </c>
       <c r="S9">
-        <v>0.068141065737542</v>
+        <v>0.054705292760675</v>
       </c>
       <c r="T9">
-        <v>0.068141065737542</v>
+        <v>0.054705292760675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H10">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I10">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J10">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N10">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q10">
-        <v>25.08198246692601</v>
+        <v>119.5919499962672</v>
       </c>
       <c r="R10">
-        <v>25.08198246692601</v>
+        <v>1076.327549966405</v>
       </c>
       <c r="S10">
-        <v>0.008255331828072678</v>
+        <v>0.02680398470324289</v>
       </c>
       <c r="T10">
-        <v>0.008255331828072678</v>
+        <v>0.02680398470324289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H11">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I11">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J11">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q11">
-        <v>128.1994048376035</v>
+        <v>492.4176470703858</v>
       </c>
       <c r="R11">
-        <v>128.1994048376035</v>
+        <v>4431.758823633471</v>
       </c>
       <c r="S11">
-        <v>0.04219477581133756</v>
+        <v>0.110364912354832</v>
       </c>
       <c r="T11">
-        <v>0.04219477581133756</v>
+        <v>0.110364912354832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H12">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I12">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J12">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N12">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q12">
-        <v>167.1108027443034</v>
+        <v>743.6449634567323</v>
       </c>
       <c r="R12">
-        <v>167.1108027443034</v>
+        <v>6692.804671110592</v>
       </c>
       <c r="S12">
-        <v>0.05500183769480553</v>
+        <v>0.1666721566607119</v>
       </c>
       <c r="T12">
-        <v>0.05500183769480553</v>
+        <v>0.1666721566607119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H13">
+        <v>40.874251</v>
+      </c>
+      <c r="I13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N13">
+        <v>54.731798</v>
+      </c>
+      <c r="O13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q13">
+        <v>248.5690276814776</v>
+      </c>
+      <c r="R13">
+        <v>2237.121249133298</v>
+      </c>
+      <c r="S13">
+        <v>0.05571144559380663</v>
+      </c>
+      <c r="T13">
+        <v>0.05571144559380662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H14">
+        <v>12.611606</v>
+      </c>
+      <c r="I14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.777551666666666</v>
+      </c>
+      <c r="N14">
+        <v>26.332655</v>
+      </c>
+      <c r="O14">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="P14">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="Q14">
+        <v>36.89967442154778</v>
+      </c>
+      <c r="R14">
+        <v>332.09706979393</v>
+      </c>
+      <c r="S14">
+        <v>0.008270274953963715</v>
+      </c>
+      <c r="T14">
+        <v>0.008270274953963713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H15">
+        <v>12.611606</v>
+      </c>
+      <c r="I15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.14140700000001</v>
+      </c>
+      <c r="N15">
+        <v>108.424221</v>
+      </c>
+      <c r="O15">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="P15">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="Q15">
+        <v>151.9337284565474</v>
+      </c>
+      <c r="R15">
+        <v>1367.403556108927</v>
+      </c>
+      <c r="S15">
+        <v>0.03405270449710927</v>
+      </c>
+      <c r="T15">
+        <v>0.03405270449710927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="H13">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="I13">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="J13">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="N13">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="O13">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="P13">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="Q13">
-        <v>59.29498939454662</v>
-      </c>
-      <c r="R13">
-        <v>59.29498939454662</v>
-      </c>
-      <c r="S13">
-        <v>0.01951599375525855</v>
-      </c>
-      <c r="T13">
-        <v>0.01951599375525855</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H16">
+        <v>12.611606</v>
+      </c>
+      <c r="I16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.580447</v>
+      </c>
+      <c r="N16">
+        <v>163.741341</v>
+      </c>
+      <c r="O16">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="P16">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="Q16">
+        <v>229.4490309559607</v>
+      </c>
+      <c r="R16">
+        <v>2065.041278603646</v>
+      </c>
+      <c r="S16">
+        <v>0.05142610615605347</v>
+      </c>
+      <c r="T16">
+        <v>0.05142610615605346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H17">
+        <v>12.611606</v>
+      </c>
+      <c r="I17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N17">
+        <v>54.731798</v>
+      </c>
+      <c r="O17">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P17">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q17">
+        <v>76.69509689417647</v>
+      </c>
+      <c r="R17">
+        <v>690.2558720475881</v>
+      </c>
+      <c r="S17">
+        <v>0.01718957006746192</v>
+      </c>
+      <c r="T17">
+        <v>0.01718957006746192</v>
       </c>
     </row>
   </sheetData>
